--- a/Releases/Jail Releases/COVID-19_Related_Jail_Releases.xlsx
+++ b/Releases/Jail Releases/COVID-19_Related_Jail_Releases.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T191"/>
+  <dimension ref="A1:T192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6129,7 +6129,7 @@
       </c>
       <c r="T91" t="inlineStr">
         <is>
-          <t>NYC Board of Correction showl reduction of 1600 from 3.16.20 to 5.8.2020, including 443 people sentenced to less than one year, 500 people held on technical parole violation; line below subtracted from 1600 to get 1000. MD</t>
+          <t>NYC Board of Correction show reduction of 1600 from 3.16.20 to 5.8.2020, including 443 people sentenced to less than one year, 500 people held on technical parole violation; line below subtracted from 1600 to get 1000. MD</t>
         </is>
       </c>
     </row>
@@ -10157,20 +10157,33 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Williamson</t>
+          <t>Sumner</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Williamson County Jail</t>
+          <t>County-wide</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Courts</t>
+        </is>
+      </c>
+      <c r="E156">
+        <v>832</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>787</t>
         </is>
       </c>
       <c r="G156">
-        <v>136</v>
+        <v>231</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Releases only</t>
+          <t>Mix</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -10178,67 +10191,54 @@
           <t>Yes - See columns J-O</t>
         </is>
       </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
       <c r="M156" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P156" t="inlineStr">
         <is>
-          <t>43930</t>
+          <t>43922</t>
         </is>
       </c>
       <c r="R156" t="inlineStr">
         <is>
-          <t>https://www.williamsonhomepage.com/news/coronavirus/williamson-county-jail-releases-136-inmates-due-to-covid-19-risks-one-wcso-employee-positive/article_adbefd6c-7a86-11ea-9be2-0715c5711c81.html</t>
+          <t>https://tennesseelookout.com/2020/06/10/covid-fears-reduce-jail-populations/</t>
         </is>
       </c>
       <c r="T156" t="inlineStr">
         <is>
-          <t>Non-violent offenders charged with misdemeanors, some released if end of sentence. others monitored.</t>
+          <t>Those nearing end of sentence and vulnerable population = those with severe health issues.</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Texas</t>
+          <t>Tennessee</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Cameron</t>
+          <t>Williamson</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>County-wide</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>Courts</t>
-        </is>
-      </c>
-      <c r="E157">
-        <v>1746</v>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>1092</t>
+          <t>Williamson County Jail</t>
         </is>
       </c>
       <c r="G157">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Mix</t>
+          <t>Releases only</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -10246,29 +10246,29 @@
           <t>Yes - See columns J-O</t>
         </is>
       </c>
-      <c r="O157" t="inlineStr">
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
       <c r="P157" t="inlineStr">
         <is>
-          <t>43952</t>
+          <t>43930</t>
         </is>
       </c>
       <c r="R157" t="inlineStr">
         <is>
-          <t>https://www.covid19intexasjails.com/jail-population-reductions</t>
-        </is>
-      </c>
-      <c r="S157" t="inlineStr">
-        <is>
-          <t>https://perma.cc/5DBY-3M6L</t>
+          <t>https://www.williamsonhomepage.com/news/coronavirus/williamson-county-jail-releases-136-inmates-due-to-covid-19-risks-one-wcso-employee-positive/article_adbefd6c-7a86-11ea-9be2-0715c5711c81.html</t>
         </is>
       </c>
       <c r="T157" t="inlineStr">
         <is>
-          <t>Non-violent offenders being reviewed individually according to Appleseed report</t>
+          <t>Non-violent offenders charged with misdemeanors, some released if end of sentence. others monitored.</t>
         </is>
       </c>
     </row>
@@ -10280,7 +10280,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Dallas</t>
+          <t>Cameron</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -10294,15 +10294,15 @@
         </is>
       </c>
       <c r="E158">
-        <v>8746</v>
+        <v>1746</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>5879</t>
+          <t>1092</t>
         </is>
       </c>
       <c r="G158">
-        <v>1000</v>
+        <v>73</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
@@ -10311,57 +10311,32 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="M158" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="N158" t="inlineStr">
-        <is>
-          <t>--</t>
+          <t>Yes - See columns J-O</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>x</t>
         </is>
       </c>
       <c r="P158" t="inlineStr">
         <is>
-          <t>43935</t>
+          <t>43952</t>
         </is>
       </c>
       <c r="R158" t="inlineStr">
         <is>
-          <t>https://www.fox4news.com/news/42-inmates-14-officers-test-positive-for-covid-19-at-dallas-county-jail</t>
+          <t>https://www.covid19intexasjails.com/jail-population-reductions</t>
         </is>
       </c>
       <c r="S158" t="inlineStr">
         <is>
-          <t>perma.cc/JBR9-T4G9</t>
+          <t>https://perma.cc/5DBY-3M6L</t>
         </is>
       </c>
       <c r="T158" t="inlineStr">
         <is>
-          <t>the releases were each done individually by courts and were non-Violent offenses</t>
+          <t>Non-violent offenders being reviewed individually according to Appleseed report</t>
         </is>
       </c>
     </row>
@@ -10373,7 +10348,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Galveston</t>
+          <t>Dallas</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -10383,19 +10358,19 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>courts</t>
+          <t>Courts</t>
         </is>
       </c>
       <c r="E159">
-        <v>1187</v>
+        <v>8746</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>5879</t>
         </is>
       </c>
       <c r="G159">
-        <v>209</v>
+        <v>1000</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
@@ -10404,32 +10379,57 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Yes - See columns J-O</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>--</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>--</t>
         </is>
       </c>
       <c r="P159" t="inlineStr">
         <is>
-          <t>43952</t>
+          <t>43935</t>
         </is>
       </c>
       <c r="R159" t="inlineStr">
         <is>
-          <t>https://www.covid19intexasjails.com/jail-population-reductions</t>
+          <t>https://www.fox4news.com/news/42-inmates-14-officers-test-positive-for-covid-19-at-dallas-county-jail</t>
         </is>
       </c>
       <c r="S159" t="inlineStr">
         <is>
-          <t>https://perma.cc/5DBY-3M6L</t>
+          <t>perma.cc/JBR9-T4G9</t>
         </is>
       </c>
       <c r="T159" t="inlineStr">
         <is>
-          <t>Texas Appleseed reports change. Releasing "carefully reviewed" low level and non violent offenders released on personal bond.</t>
+          <t>the releases were each done individually by courts and were non-Violent offenses</t>
         </is>
       </c>
     </row>
@@ -10441,7 +10441,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Harris</t>
+          <t>Galveston</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -10449,16 +10449,21 @@
           <t>County-wide</t>
         </is>
       </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>courts</t>
+        </is>
+      </c>
       <c r="E160">
-        <v>10566</v>
+        <v>1187</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>9050</t>
+          <t>859</t>
         </is>
       </c>
       <c r="G160">
-        <v>1488</v>
+        <v>209</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
@@ -10467,10 +10472,10 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L160" t="inlineStr">
+          <t>Yes - See columns J-O</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -10492,7 +10497,7 @@
       </c>
       <c r="T160" t="inlineStr">
         <is>
-          <t>Texas Appleseed report change 3/1 to 5/1/20</t>
+          <t>Texas Appleseed reports change. Releasing "carefully reviewed" low level and non violent offenders released on personal bond.</t>
         </is>
       </c>
     </row>
@@ -10504,7 +10509,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Hildalgo</t>
+          <t>Harris</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -10512,30 +10517,25 @@
           <t>County-wide</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>Courts</t>
-        </is>
-      </c>
       <c r="E161">
-        <v>1232</v>
+        <v>10566</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>1047</t>
+          <t>9050</t>
         </is>
       </c>
       <c r="G161">
-        <v>384</v>
+        <v>1488</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Releases only</t>
+          <t>Mix</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Yes - See columns J-O</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
@@ -10543,11 +10543,6 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O161" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
       <c r="P161" t="inlineStr">
         <is>
           <t>43952</t>
@@ -10565,7 +10560,7 @@
       </c>
       <c r="T161" t="inlineStr">
         <is>
-          <t>Texas Appleseed report releases on reduced bonds, personal recog bonds, and on court-ordered release.</t>
+          <t>Texas Appleseed report change 3/1 to 5/1/20</t>
         </is>
       </c>
     </row>
@@ -10577,7 +10572,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Jefferson</t>
+          <t>Hildalgo</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -10585,20 +10580,25 @@
           <t>County-wide</t>
         </is>
       </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Courts</t>
+        </is>
+      </c>
       <c r="E162">
-        <v>1220</v>
+        <v>1232</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>831</t>
+          <t>1047</t>
         </is>
       </c>
       <c r="G162">
-        <v>280</v>
+        <v>384</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Mix</t>
+          <t>Releases only</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -10618,7 +10618,7 @@
       </c>
       <c r="P162" t="inlineStr">
         <is>
-          <t>43922</t>
+          <t>43952</t>
         </is>
       </c>
       <c r="R162" t="inlineStr">
@@ -10633,7 +10633,7 @@
       </c>
       <c r="T162" t="inlineStr">
         <is>
-          <t>Texas Appleseed reports change. Reducing bonds for non violent offenders released on personal bond.</t>
+          <t>Texas Appleseed report releases on reduced bonds, personal recog bonds, and on court-ordered release.</t>
         </is>
       </c>
     </row>
@@ -10645,7 +10645,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>McLennan</t>
+          <t>Jefferson</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -10654,15 +10654,15 @@
         </is>
       </c>
       <c r="E163">
-        <v>1678</v>
+        <v>1220</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>1229</t>
+          <t>831</t>
         </is>
       </c>
       <c r="G163">
-        <v>207</v>
+        <v>280</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
@@ -10674,19 +10674,19 @@
           <t>Yes - See columns J-O</t>
         </is>
       </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
       <c r="L163" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P163" t="inlineStr">
         <is>
-          <t>43952</t>
+          <t>43922</t>
         </is>
       </c>
       <c r="R163" t="inlineStr">
@@ -10701,7 +10701,7 @@
       </c>
       <c r="T163" t="inlineStr">
         <is>
-          <t>Texas Appleseed reports increased releases on personal bond for non-violent misdemeanor pre trial</t>
+          <t>Texas Appleseed reports change. Reducing bonds for non violent offenders released on personal bond.</t>
         </is>
       </c>
     </row>
@@ -10713,7 +10713,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Montgomery</t>
+          <t>McLennan</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -10721,21 +10721,16 @@
           <t>County-wide</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>Courts</t>
-        </is>
-      </c>
       <c r="E164">
-        <v>1253</v>
+        <v>1678</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>955</t>
+          <t>1229</t>
         </is>
       </c>
       <c r="G164">
-        <v>343</v>
+        <v>207</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
@@ -10747,7 +10742,12 @@
           <t>Yes - See columns J-O</t>
         </is>
       </c>
-      <c r="N164" t="inlineStr">
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L164" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -10759,7 +10759,7 @@
       </c>
       <c r="R164" t="inlineStr">
         <is>
-          <t>https://www.covid19intexasjails.com/jail-population-reductions  News source:  https://www.12newsnow.com/article/news/local/jefferson-county-jail-cancels-visitation-releases-some-inmates-amid-coronavirus-concerns/502-f7e9e268-e131-46af-a478-95553f309bf8</t>
+          <t>https://www.covid19intexasjails.com/jail-population-reductions</t>
         </is>
       </c>
       <c r="S164" t="inlineStr">
@@ -10769,7 +10769,7 @@
       </c>
       <c r="T164" t="inlineStr">
         <is>
-          <t>Texas Appleseed report -- lowering bonds for release of inmates with health concerns, among others</t>
+          <t>Texas Appleseed reports increased releases on personal bond for non-violent misdemeanor pre trial</t>
         </is>
       </c>
     </row>
@@ -10781,7 +10781,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Nueces</t>
+          <t>Montgomery</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -10791,19 +10791,19 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Courts/district attorney</t>
+          <t>Courts</t>
         </is>
       </c>
       <c r="E165">
-        <v>1068</v>
+        <v>1253</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>933</t>
+          <t>955</t>
         </is>
       </c>
       <c r="G165">
-        <v>147</v>
+        <v>343</v>
       </c>
       <c r="H165" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
           <t>Yes - See columns J-O</t>
         </is>
       </c>
-      <c r="L165" t="inlineStr">
+      <c r="N165" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -10827,7 +10827,7 @@
       </c>
       <c r="R165" t="inlineStr">
         <is>
-          <t>https://www.covid19intexasjails.com/jail-population-reductions</t>
+          <t>https://www.covid19intexasjails.com/jail-population-reductions  News source:  https://www.12newsnow.com/article/news/local/jefferson-county-jail-cancels-visitation-releases-some-inmates-amid-coronavirus-concerns/502-f7e9e268-e131-46af-a478-95553f309bf8</t>
         </is>
       </c>
       <c r="S165" t="inlineStr">
@@ -10837,7 +10837,7 @@
       </c>
       <c r="T165" t="inlineStr">
         <is>
-          <t>Texas Appleseed report - lowering bonds or issuing personal bonds for certain felonies</t>
+          <t>Texas Appleseed report -- lowering bonds for release of inmates with health concerns, among others</t>
         </is>
       </c>
     </row>
@@ -10849,182 +10849,175 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
+          <t>Nueces</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>County-wide</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Courts/district attorney</t>
+        </is>
+      </c>
+      <c r="E166">
+        <v>1068</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>933</t>
+        </is>
+      </c>
+      <c r="G166">
+        <v>147</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Mix</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>Yes - See columns J-O</t>
+        </is>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>43952</t>
+        </is>
+      </c>
+      <c r="R166" t="inlineStr">
+        <is>
+          <t>https://www.covid19intexasjails.com/jail-population-reductions</t>
+        </is>
+      </c>
+      <c r="S166" t="inlineStr">
+        <is>
+          <t>https://perma.cc/5DBY-3M6L</t>
+        </is>
+      </c>
+      <c r="T166" t="inlineStr">
+        <is>
+          <t>Texas Appleseed report - lowering bonds or issuing personal bonds for certain felonies</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Texas</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
           <t>Smith</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr">
+      <c r="C167" t="inlineStr">
         <is>
           <t>County-wide</t>
         </is>
       </c>
-      <c r="E166">
+      <c r="E167">
         <v>1149</v>
       </c>
-      <c r="F166" t="inlineStr">
+      <c r="F167" t="inlineStr">
         <is>
           <t>933</t>
         </is>
       </c>
-      <c r="G166">
+      <c r="G167">
         <v>178</v>
       </c>
-      <c r="H166" t="inlineStr">
+      <c r="H167" t="inlineStr">
         <is>
           <t>Mix</t>
         </is>
       </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>Yes - See columns J-O</t>
-        </is>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O166" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P166" t="inlineStr">
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>Yes - See columns J-O</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
         <is>
           <t>43952</t>
         </is>
       </c>
-      <c r="R166" t="inlineStr">
+      <c r="R167" t="inlineStr">
         <is>
           <t>https://tylerpaper.com/news/local/non-violent-inmates-released-from-smith-county-jail-to-prevent/article_4c109aaa-6d55-11ea-b034-734fb42bc592.html 
 population data: https://www.covid19intexasjails.com/jail-population-reductions</t>
         </is>
       </c>
-      <c r="S166" t="inlineStr">
+      <c r="S167" t="inlineStr">
         <is>
           <t>https://perma.cc/U8PT-JQP5</t>
         </is>
       </c>
-      <c r="T166" t="inlineStr">
+      <c r="T167" t="inlineStr">
         <is>
           <t>People  charged with Non-violent misdemeanors awaiting trial being released on personal bond.  Appleseed report 3/1 to 5/1 data</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>Texas</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Travis</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>County-wide</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>courts</t>
-        </is>
-      </c>
-      <c r="E167">
-        <v>3095</v>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>2164</t>
-        </is>
-      </c>
-      <c r="G167">
-        <v>97</v>
-      </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>Mix</t>
-        </is>
-      </c>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>Yes - See columns J-O</t>
-        </is>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N167" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O167" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P167" t="inlineStr">
-        <is>
-          <t>43906</t>
-        </is>
-      </c>
-      <c r="R167" t="inlineStr">
-        <is>
-          <t>https://www.statesman.com/news/20200316/travis-county-judges-releasing-inmates-to-limit-coronavirus-spread?fbclid=IwAR3VKawwn3bwSLSO9jXBxXNRuaWd1DRLsCBFc-ZkPN1INWW8xnzLPvZYNO4</t>
-        </is>
-      </c>
-      <c r="S167" t="inlineStr">
-        <is>
-          <t>perma.cc/LX5B-7RMK</t>
-        </is>
-      </c>
-      <c r="T167" t="inlineStr">
-        <is>
-          <t>A few medically frail; bonding non-violent and low level</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Virginia</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Albemarle</t>
+          <t>Travis</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Albemarle-Charlottesvile Regional Jail</t>
+          <t>County-wide</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Commonwealth Attorney</t>
-        </is>
+          <t>courts</t>
+        </is>
+      </c>
+      <c r="E168">
+        <v>3095</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>2164</t>
         </is>
       </c>
       <c r="G168">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Releases only</t>
+          <t>Mix</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -11032,7 +11025,12 @@
           <t>Yes - See columns J-O</t>
         </is>
       </c>
-      <c r="M168" t="inlineStr">
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N168" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -11044,22 +11042,22 @@
       </c>
       <c r="P168" t="inlineStr">
         <is>
-          <t>43928</t>
+          <t>43906</t>
         </is>
       </c>
       <c r="R168" t="inlineStr">
         <is>
-          <t>https://www.c-ville.com/get-out-of-jail-virus-free-coronavirus-crisis-sees-local-justice-system-adopt-progressive-reforms-for-now/</t>
+          <t>https://www.statesman.com/news/20200316/travis-county-judges-releasing-inmates-to-limit-coronavirus-spread?fbclid=IwAR3VKawwn3bwSLSO9jXBxXNRuaWd1DRLsCBFc-ZkPN1INWW8xnzLPvZYNO4</t>
         </is>
       </c>
       <c r="S168" t="inlineStr">
         <is>
-          <t>perma.cc/UF2P-4UZX</t>
+          <t>perma.cc/LX5B-7RMK</t>
         </is>
       </c>
       <c r="T168" t="inlineStr">
         <is>
-          <t>61 inmates non-violent with short time of their sentences have been released to home monitoring, with ankle monitors, and the rest of the 122 are pretrial; some medically vulnerable, all with homes to go to. detainees</t>
+          <t>A few medically frail; bonding non-violent and low level</t>
         </is>
       </c>
     </row>
@@ -11071,19 +11069,26 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Amelia, Buckingham, Cumberland, Lunenburg, Nottoway, Prince Edward</t>
+          <t>Albemarle</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Piedmont Regional Jail</t>
-        </is>
-      </c>
-      <c r="E169">
-        <v>245</v>
+          <t>Albemarle-Charlottesvile Regional Jail</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Commonwealth Attorney</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
       </c>
       <c r="G169">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
@@ -11095,6 +11100,11 @@
           <t>Yes - See columns J-O</t>
         </is>
       </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O169" t="inlineStr">
         <is>
           <t>x</t>
@@ -11102,22 +11112,22 @@
       </c>
       <c r="P169" t="inlineStr">
         <is>
-          <t>43952</t>
+          <t>43928</t>
         </is>
       </c>
       <c r="R169" t="inlineStr">
         <is>
-          <t>https://www.dailyprogress.com/news/state/10-inmates-at-piedmont-regional-jail-infected-with-covid-19-4-other-regional-jails-are/article_fc0fc1e0-ddb7-5421-9931-8da3c73e478b.html</t>
+          <t>https://www.c-ville.com/get-out-of-jail-virus-free-coronavirus-crisis-sees-local-justice-system-adopt-progressive-reforms-for-now/</t>
         </is>
       </c>
       <c r="S169" t="inlineStr">
         <is>
-          <t>perma.cc/K7KE-LS54</t>
+          <t>perma.cc/UF2P-4UZX</t>
         </is>
       </c>
       <c r="T169" t="inlineStr">
         <is>
-          <t>furlough of work-release and weekend inmates</t>
+          <t>61 inmates non-violent with short time of their sentences have been released to home monitoring, with ankle monitors, and the rest of the 122 are pretrial; some medically vulnerable, all with homes to go to. detainees</t>
         </is>
       </c>
     </row>
@@ -11129,21 +11139,19 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Arlington</t>
+          <t>Amelia, Buckingham, Cumberland, Lunenburg, Nottoway, Prince Edward</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Arlington County Detention Facility</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>court</t>
-        </is>
+          <t>Piedmont Regional Jail</t>
+        </is>
+      </c>
+      <c r="E170">
+        <v>245</v>
       </c>
       <c r="G170">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
@@ -11152,32 +11160,32 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes - See columns J-O</t>
+        </is>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>x</t>
         </is>
       </c>
       <c r="P170" t="inlineStr">
         <is>
-          <t>43958</t>
-        </is>
-      </c>
-      <c r="Q170" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>43952</t>
         </is>
       </c>
       <c r="R170" t="inlineStr">
         <is>
-          <t>https://www.arlnow.com/2020/05/07/some-arlington-inmates-freed-amid-continued-coronavirus-fears/</t>
+          <t>https://www.dailyprogress.com/news/state/10-inmates-at-piedmont-regional-jail-infected-with-covid-19-4-other-regional-jails-are/article_fc0fc1e0-ddb7-5421-9931-8da3c73e478b.html</t>
         </is>
       </c>
       <c r="S170" t="inlineStr">
         <is>
-          <t>perma.cc/PUV2-FVDV</t>
+          <t>perma.cc/K7KE-LS54</t>
         </is>
       </c>
       <c r="T170" t="inlineStr">
         <is>
-          <t>25-30% reduction in prison population “over the past few months," due to police, etc. average inmate population of 500</t>
+          <t>furlough of work-release and weekend inmates</t>
         </is>
       </c>
     </row>
@@ -11194,20 +11202,20 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>County-wide</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>307</t>
+          <t>Arlington County Detention Facility</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>court</t>
         </is>
       </c>
       <c r="G171">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Mix</t>
+          <t>Releases only</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -11220,6 +11228,11 @@
           <t>43958</t>
         </is>
       </c>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="R171" t="inlineStr">
         <is>
           <t>https://www.arlnow.com/2020/05/07/some-arlington-inmates-freed-amid-continued-coronavirus-fears/</t>
@@ -11232,7 +11245,7 @@
       </c>
       <c r="T171" t="inlineStr">
         <is>
-          <t>Article describes many strategies and impressive cooperation with public defender, prosecutor, and sheriff.  Data from Vera.</t>
+          <t>25-30% reduction in prison population “over the past few months," due to police, etc. average inmate population of 500</t>
         </is>
       </c>
     </row>
@@ -11244,55 +11257,50 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Augusta</t>
+          <t>Arlington</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Middle River Regional</t>
+          <t>County-wide</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>307</t>
         </is>
       </c>
       <c r="G172">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Releases only</t>
+          <t>Mix</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Yes - See columns J-O</t>
-        </is>
-      </c>
-      <c r="N172" t="inlineStr">
-        <is>
-          <t>x</t>
+          <t>No</t>
         </is>
       </c>
       <c r="P172" t="inlineStr">
         <is>
-          <t>43916</t>
+          <t>43958</t>
         </is>
       </c>
       <c r="R172" t="inlineStr">
         <is>
-          <t>https://www.newsleader.com/story/news/local/2020/03/27/middle-river-regional-jail-has-shed-nearly-100-inmates-combat-virus/2919154001/</t>
+          <t>https://www.arlnow.com/2020/05/07/some-arlington-inmates-freed-amid-continued-coronavirus-fears/</t>
         </is>
       </c>
       <c r="S172" t="inlineStr">
         <is>
-          <t>perma.cc/U3Z9-97ZH</t>
+          <t>perma.cc/PUV2-FVDV</t>
         </is>
       </c>
       <c r="T172" t="inlineStr">
         <is>
-          <t>While the reduction in the jail's inmate population will continue, Newton said he doesn't think it will surpass the maximum target of 125. Goal seems to be to keep prisoner population &lt; 800.</t>
+          <t>Article describes many strategies and impressive cooperation with public defender, prosecutor, and sheriff.  Data from Vera.</t>
         </is>
       </c>
     </row>
@@ -11304,275 +11312,257 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
+          <t>Augusta</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Middle River Regional</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="G173">
+        <v>100</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Releases only</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>Yes - See columns J-O</t>
+        </is>
+      </c>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>43916</t>
+        </is>
+      </c>
+      <c r="R173" t="inlineStr">
+        <is>
+          <t>https://www.newsleader.com/story/news/local/2020/03/27/middle-river-regional-jail-has-shed-nearly-100-inmates-combat-virus/2919154001/</t>
+        </is>
+      </c>
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>perma.cc/U3Z9-97ZH</t>
+        </is>
+      </c>
+      <c r="T173" t="inlineStr">
+        <is>
+          <t>While the reduction in the jail's inmate population will continue, Newton said he doesn't think it will surpass the maximum target of 125. Goal seems to be to keep prisoner population &lt; 800.</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Virginia</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
           <t>Frederick</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
+      <c r="C174" t="inlineStr">
         <is>
           <t>Northwestern Regional Adult Detention Center</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
+      <c r="D174" t="inlineStr">
         <is>
           <t>court / judge</t>
         </is>
       </c>
-      <c r="E173">
+      <c r="E174">
         <v>540</v>
       </c>
-      <c r="G173">
+      <c r="G174">
         <v>60</v>
       </c>
-      <c r="H173" t="inlineStr">
+      <c r="H174" t="inlineStr">
         <is>
           <t>Releases only</t>
         </is>
       </c>
-      <c r="I173" t="inlineStr">
-        <is>
-          <t>Yes - See columns J-O</t>
-        </is>
-      </c>
-      <c r="M173" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O173" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P173" t="inlineStr">
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>Yes - See columns J-O</t>
+        </is>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
         <is>
           <t>43916</t>
         </is>
       </c>
-      <c r="R173" t="inlineStr">
+      <c r="R174" t="inlineStr">
         <is>
           <t>https://www.winchesterstar.com/coronavirus/inmates-released-early-to-prevent-covid--outbreak/article_17d8bd32-a255-5e3b-bab6-5701131a2b20.html
 capacity info: https://www.nradc.com/about-us/history-of-the-jail</t>
         </is>
       </c>
-      <c r="S173" t="inlineStr">
+      <c r="S174" t="inlineStr">
         <is>
           <t>perma.cc/G6EW-GLRG</t>
         </is>
       </c>
-      <c r="T173" t="inlineStr">
+      <c r="T174" t="inlineStr">
         <is>
           <t>The jails average population from 2015-2019 is 635; other: 25 part of work release program/ most nonviolent</t>
         </is>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
+    <row r="175">
+      <c r="A175" t="inlineStr">
         <is>
           <t>Virginia</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B175" t="inlineStr">
         <is>
           <t>Halifax</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
+      <c r="C175" t="inlineStr">
         <is>
           <t>Blue Ridge Reg. Jail (BRRJ) - Halifax</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
+      <c r="D175" t="inlineStr">
         <is>
           <t>court</t>
         </is>
       </c>
-      <c r="E174">
+      <c r="E175">
         <v>200</v>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="F175" t="inlineStr">
         <is>
           <t>184</t>
         </is>
       </c>
-      <c r="G174">
+      <c r="G175">
         <v>34</v>
       </c>
-      <c r="H174" t="inlineStr">
+      <c r="H175" t="inlineStr">
         <is>
           <t>Mix</t>
         </is>
       </c>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>Yes - See columns J-O</t>
-        </is>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M174" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P174" t="inlineStr">
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>Yes - See columns J-O</t>
+        </is>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
         <is>
           <t>43947</t>
         </is>
       </c>
-      <c r="Q174" t="inlineStr">
+      <c r="Q175" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="R174" t="inlineStr">
+      <c r="R175" t="inlineStr">
         <is>
           <t>http://www.yourgv.com/coronavirus/population-dwindles-at-halifax-county-jail-during-covid-19-pandemic/article_475bd84a-87f8-11ea-9b90-c7506f8778a0.html
 Capacity: https://www.brrja.state.va.us/halifax-county-adult-detention-center/</t>
         </is>
       </c>
-      <c r="S174" t="inlineStr">
+      <c r="S175" t="inlineStr">
         <is>
           <t>perma.cc/6CEC-TGN6</t>
         </is>
       </c>
-      <c r="T174" t="inlineStr">
+      <c r="T175" t="inlineStr">
         <is>
           <t>allowing new bond hearings to reduce bond for release; non violent misdemeanors at end of sentence</t>
         </is>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
+    <row r="176">
+      <c r="A176" t="inlineStr">
         <is>
           <t>Virginia</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="B176" t="inlineStr">
         <is>
           <t>Hanover</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="C176" t="inlineStr">
         <is>
           <t>Pamunkey Regional Jail</t>
         </is>
       </c>
-      <c r="E175">
+      <c r="E176">
         <v>519</v>
       </c>
-      <c r="G175">
+      <c r="G176">
         <v>6</v>
       </c>
-      <c r="H175" t="inlineStr">
+      <c r="H176" t="inlineStr">
         <is>
           <t>Releases only</t>
         </is>
       </c>
-      <c r="I175" t="inlineStr">
-        <is>
-          <t>Yes - See columns J-O</t>
-        </is>
-      </c>
-      <c r="M175" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P175" t="inlineStr">
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>Yes - See columns J-O</t>
+        </is>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
         <is>
           <t>43913</t>
         </is>
       </c>
-      <c r="R175" t="inlineStr">
+      <c r="R176" t="inlineStr">
         <is>
           <t>https://www.wric.com/news/virginia-news/area-jails-releasing-inmates-to-prevent-covid-19-outbreak-behind-bars/
 capacity info: https://www.hanovercounty.gov/ArchiveCenter/ViewFile/Item/239</t>
         </is>
       </c>
-      <c r="S175" t="inlineStr">
+      <c r="S176" t="inlineStr">
         <is>
           <t>perma.cc/BED5-W7QX</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>Virginia</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>Prince William</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>Prince William Manassas Regional Adult Detention Center</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>commonwealth attorney</t>
-        </is>
-      </c>
-      <c r="E176">
-        <v>667</v>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>752</t>
-        </is>
-      </c>
-      <c r="G176">
-        <v>150</v>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>Mix</t>
-        </is>
-      </c>
-      <c r="I176" t="inlineStr">
-        <is>
-          <t>Yes - See columns J-O</t>
-        </is>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N176" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O176" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P176" t="inlineStr">
-        <is>
-          <t>43936</t>
-        </is>
-      </c>
-      <c r="R176" t="inlineStr">
-        <is>
-          <t>https://www.princewilliamtimes.com/news/commonwealth-s-attorney-says-she-s-trying-to-keep-the-elderly-medically-at-risk-out/article_5f24e236-7f52-11ea-970d-6bd48a320093.html</t>
-        </is>
-      </c>
-      <c r="S176" t="inlineStr">
-        <is>
-          <t>perma.cc/2NXC-A3WR</t>
-        </is>
-      </c>
-      <c r="T176" t="inlineStr">
-        <is>
-          <t>focusing on elderly, medically at-risk, and non-violent, allowing new bond hearings for many to have bond reduced.  Some ankle monitoring</t>
         </is>
       </c>
     </row>
@@ -11584,20 +11574,33 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Roanoke</t>
+          <t>Prince William</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Roanoke City Jail</t>
+          <t>Prince William Manassas Regional Adult Detention Center</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>commonwealth attorney</t>
+        </is>
+      </c>
+      <c r="E177">
+        <v>667</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>752</t>
         </is>
       </c>
       <c r="G177">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Releases only</t>
+          <t>Mix</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -11605,17 +11608,12 @@
           <t>Yes - See columns J-O</t>
         </is>
       </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
       <c r="L177" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="M177" t="inlineStr">
+      <c r="N177" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -11627,22 +11625,22 @@
       </c>
       <c r="P177" t="inlineStr">
         <is>
-          <t>43910</t>
+          <t>43936</t>
         </is>
       </c>
       <c r="R177" t="inlineStr">
         <is>
-          <t>https://www.roanoke.com/news/crime/some-area-inmates-get-early-release-as-jails-respond-to/article_51f31890-ade7-59da-830f-7b60bfe7ac1d.html</t>
+          <t>https://www.princewilliamtimes.com/news/commonwealth-s-attorney-says-she-s-trying-to-keep-the-elderly-medically-at-risk-out/article_5f24e236-7f52-11ea-970d-6bd48a320093.html</t>
         </is>
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t>perma.cc/5NNE-5KLS</t>
+          <t>perma.cc/2NXC-A3WR</t>
         </is>
       </c>
       <c r="T177" t="inlineStr">
         <is>
-          <t>population generally hovers between 500-550 inmates; other: primarily nonviolent, low-risk offenders, or short-timers who already had an imminent date to be set free</t>
+          <t>focusing on elderly, medically at-risk, and non-violent, allowing new bond hearings for many to have bond reduced.  Some ankle monitoring</t>
         </is>
       </c>
     </row>
@@ -11653,6 +11651,76 @@
         </is>
       </c>
       <c r="B178" t="inlineStr">
+        <is>
+          <t>Roanoke</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Roanoke City Jail</t>
+        </is>
+      </c>
+      <c r="G178">
+        <v>56</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Releases only</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>Yes - See columns J-O</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>43910</t>
+        </is>
+      </c>
+      <c r="R178" t="inlineStr">
+        <is>
+          <t>https://www.roanoke.com/news/crime/some-area-inmates-get-early-release-as-jails-respond-to/article_51f31890-ade7-59da-830f-7b60bfe7ac1d.html</t>
+        </is>
+      </c>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t>perma.cc/5NNE-5KLS</t>
+        </is>
+      </c>
+      <c r="T178" t="inlineStr">
+        <is>
+          <t>population generally hovers between 500-550 inmates; other: primarily nonviolent, low-risk offenders, or short-timers who already had an imminent date to be set free</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Virginia</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
         <is>
           <t>Augusta
 Waynesboro
@@ -11661,123 +11729,60 @@
 Rockingham</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
+      <c r="C179" t="inlineStr">
         <is>
           <t>Middle River Regional Jail</t>
         </is>
       </c>
-      <c r="E178">
+      <c r="E179">
         <v>396</v>
       </c>
-      <c r="F178" t="inlineStr">
+      <c r="F179" t="inlineStr">
         <is>
           <t>900</t>
         </is>
       </c>
-      <c r="G178">
+      <c r="G179">
         <v>190</v>
       </c>
-      <c r="H178" t="inlineStr">
+      <c r="H179" t="inlineStr">
         <is>
           <t>Mix</t>
         </is>
       </c>
-      <c r="I178" t="inlineStr">
-        <is>
-          <t>Yes - See columns J-O</t>
-        </is>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O178" t="inlineStr">
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>Yes - See columns J-O</t>
+        </is>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O179" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="P178" t="inlineStr">
+      <c r="P179" t="inlineStr">
         <is>
           <t>43956</t>
         </is>
       </c>
-      <c r="R178" t="inlineStr">
+      <c r="R179" t="inlineStr">
         <is>
           <t>https://www.nbc29.com/2020/05/05/local-jails-reduce-number-inmates-preparation-possible-covid-cases/</t>
         </is>
       </c>
-      <c r="S178" t="inlineStr">
+      <c r="S179" t="inlineStr">
         <is>
           <t>perma.cc/SEL2-4EDE</t>
         </is>
       </c>
-      <c r="T178" t="inlineStr">
+      <c r="T179" t="inlineStr">
         <is>
           <t>"releases result of bond changes, furloughs, sentence modifications, moving to house arrest"; capacity information is "originally built to hold 396 people"</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>Virginia</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Bristol City</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>Bristol City Jail</t>
-        </is>
-      </c>
-      <c r="E179">
-        <v>67</v>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>173</t>
-        </is>
-      </c>
-      <c r="G179">
-        <v>100</v>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>Mix</t>
-        </is>
-      </c>
-      <c r="I179" t="inlineStr">
-        <is>
-          <t>Yes - See columns J-O</t>
-        </is>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="M179" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P179" t="inlineStr">
-        <is>
-          <t>43951</t>
-        </is>
-      </c>
-      <c r="R179" t="inlineStr">
-        <is>
-          <t>https://www.virginiamercury.com/2020/04/30/as-covid-19-spreads-most-virginia-jails-remain-overcrowded/</t>
-        </is>
-      </c>
-      <c r="S179" t="inlineStr">
-        <is>
-          <t>perma.cc/K3F3-E9B3</t>
         </is>
       </c>
     </row>
@@ -11789,21 +11794,24 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Culpeper</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Culpeper County Jail</t>
-        </is>
+          <t>Bristol City Jail</t>
+        </is>
+      </c>
+      <c r="E180">
+        <v>67</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>173</t>
         </is>
       </c>
       <c r="G180">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="H180" t="inlineStr">
         <is>
@@ -11812,22 +11820,32 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes - See columns J-O</t>
+        </is>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>X</t>
         </is>
       </c>
       <c r="P180" t="inlineStr">
         <is>
-          <t>43940</t>
+          <t>43951</t>
         </is>
       </c>
       <c r="R180" t="inlineStr">
         <is>
-          <t>https://www.starexponent.com/news/culpeper-jail-population-reduced-by-more-than-half-amid-coronavirus/article_a7031cce-95e2-55fe-ae91-120dfffbdbc7.html</t>
+          <t>https://www.virginiamercury.com/2020/04/30/as-covid-19-spreads-most-virginia-jails-remain-overcrowded/</t>
         </is>
       </c>
       <c r="S180" t="inlineStr">
         <is>
-          <t>perma.cc/7AFB-9X2A</t>
+          <t>perma.cc/K3F3-E9B3</t>
         </is>
       </c>
     </row>
@@ -11839,55 +11857,45 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Danville</t>
+          <t>Culpeper</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Danville City Jail / Danville Adult Detention Center</t>
+          <t>Culpeper County Jail</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>85</t>
         </is>
       </c>
       <c r="G181">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Releases only</t>
+          <t>Mix</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Yes - See columns J-O</t>
-        </is>
-      </c>
-      <c r="M181" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="O181" t="inlineStr">
-        <is>
-          <t>X</t>
+          <t>No</t>
         </is>
       </c>
       <c r="P181" t="inlineStr">
         <is>
-          <t>43938</t>
+          <t>43940</t>
         </is>
       </c>
       <c r="R181" t="inlineStr">
         <is>
-          <t>https://www.godanriver.com/news/local/dozens-of-inmates-released-from-city-county-jails-in-recent-weeks/article_4c1c2a8a-8373-51a5-a32d-faef72b7e121.html</t>
+          <t>https://www.starexponent.com/news/culpeper-jail-population-reduced-by-more-than-half-amid-coronavirus/article_a7031cce-95e2-55fe-ae91-120dfffbdbc7.html</t>
         </is>
       </c>
       <c r="S181" t="inlineStr">
         <is>
-          <t>perma.cc/6NA3-LYEK</t>
-        </is>
-      </c>
-      <c r="T181" t="inlineStr">
-        <is>
-          <t>mix of sentences being suspended and furloughs (have to finish time later)</t>
+          <t>perma.cc/7AFB-9X2A</t>
         </is>
       </c>
     </row>
@@ -11899,110 +11907,115 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
+          <t>Danville</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Danville City Jail / Danville Adult Detention Center</t>
+        </is>
+      </c>
+      <c r="G182">
+        <v>22</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Releases only</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>Yes - See columns J-O</t>
+        </is>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>43938</t>
+        </is>
+      </c>
+      <c r="R182" t="inlineStr">
+        <is>
+          <t>https://www.godanriver.com/news/local/dozens-of-inmates-released-from-city-county-jails-in-recent-weeks/article_4c1c2a8a-8373-51a5-a32d-faef72b7e121.html</t>
+        </is>
+      </c>
+      <c r="S182" t="inlineStr">
+        <is>
+          <t>perma.cc/6NA3-LYEK</t>
+        </is>
+      </c>
+      <c r="T182" t="inlineStr">
+        <is>
+          <t>mix of sentences being suspended and furloughs (have to finish time later)</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Virginia</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
           <t>Rockingham County
 Harrisonburg</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
+      <c r="C183" t="inlineStr">
         <is>
           <t>R/H Regional Jail</t>
         </is>
       </c>
-      <c r="E182">
+      <c r="E183">
         <v>315</v>
       </c>
-      <c r="G182">
+      <c r="G183">
         <v>60</v>
       </c>
-      <c r="H182" t="inlineStr">
+      <c r="H183" t="inlineStr">
         <is>
           <t>Releases only</t>
         </is>
       </c>
-      <c r="I182" t="inlineStr">
-        <is>
-          <t>Yes - See columns J-O</t>
-        </is>
-      </c>
-      <c r="O182" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P182" t="inlineStr">
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>Yes - See columns J-O</t>
+        </is>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
         <is>
           <t>43956</t>
         </is>
       </c>
-      <c r="R182" t="inlineStr">
+      <c r="R183" t="inlineStr">
         <is>
           <t>https://www.nbc29.com/2020/05/05/local-jails-reduce-number-inmates-preparation-possible-covid-cases/
 Capacity: https://www.dnronline.com/news/coronavirus/mrrj-begins-releasing-inmates/article_249f9d32-469b-5d2c-a40c-6241a59d8a99.html</t>
         </is>
       </c>
-      <c r="S182" t="inlineStr">
+      <c r="S183" t="inlineStr">
         <is>
           <t>perma.cc/5KC3-6RDP; perma.cc/9THR-85DY</t>
         </is>
       </c>
-      <c r="T182" t="inlineStr">
+      <c r="T183" t="inlineStr">
         <is>
           <t>non-violent</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>Washington</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>Clark</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>Clark County Jail</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>601</t>
-        </is>
-      </c>
-      <c r="G183">
-        <v>200</v>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>Mix</t>
-        </is>
-      </c>
-      <c r="I183" t="inlineStr">
-        <is>
-          <t>Yes - See columns J-O</t>
-        </is>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="P183" t="inlineStr">
-        <is>
-          <t>43910</t>
-        </is>
-      </c>
-      <c r="R183" t="inlineStr">
-        <is>
-          <t>https://www.columbian.com/news/2020/mar/25/clark-county-jail-releases-nearly-200-inmates-due-to-covid-19/</t>
-        </is>
-      </c>
-      <c r="S183" t="inlineStr">
-        <is>
-          <t>perma.cc/9YEW-2G27</t>
         </is>
       </c>
     </row>
@@ -12014,16 +12027,21 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Spokane</t>
+          <t>Clark</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>County-wide</t>
+          <t>Clark County Jail</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>601</t>
         </is>
       </c>
       <c r="G184">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
@@ -12035,19 +12053,24 @@
           <t>Yes - See columns J-O</t>
         </is>
       </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P184" t="inlineStr">
         <is>
-          <t>43917</t>
+          <t>43910</t>
         </is>
       </c>
       <c r="R184" t="inlineStr">
         <is>
-          <t>https://www.spokesman.com/stories/2020/mar/27/spokane-county-jail-population-plunges-during-pand/</t>
+          <t>https://www.columbian.com/news/2020/mar/25/clark-county-jail-releases-nearly-200-inmates-due-to-covid-19/</t>
         </is>
       </c>
       <c r="S184" t="inlineStr">
         <is>
-          <t>perma.cc/5TMY-FTB3</t>
+          <t>perma.cc/9YEW-2G27</t>
         </is>
       </c>
     </row>
@@ -12067,22 +12090,12 @@
           <t>County-wide</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>Courts</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>950</t>
-        </is>
-      </c>
       <c r="G185">
-        <v>48</v>
+        <v>350</v>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Releases only</t>
+          <t>Mix</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -12090,19 +12103,14 @@
           <t>Yes - See columns J-O</t>
         </is>
       </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
       <c r="P185" t="inlineStr">
         <is>
-          <t>43907</t>
+          <t>43917</t>
         </is>
       </c>
       <c r="R185" t="inlineStr">
         <is>
-          <t>https://www.spokesman.com/stories/2020/mar/17/dozens-released-from-spokane-county-custody-follow/</t>
+          <t>https://www.spokesman.com/stories/2020/mar/27/spokane-county-jail-population-plunges-during-pand/</t>
         </is>
       </c>
       <c r="S185" t="inlineStr">
@@ -12114,25 +12122,35 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>West Virginia</t>
+          <t>Washington</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Spokane</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>State-wide</t>
+          <t>County-wide</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Courts</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>950</t>
         </is>
       </c>
       <c r="G186">
-        <v>616</v>
+        <v>48</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Mix</t>
+          <t>Releases only</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -12140,41 +12158,31 @@
           <t>Yes - See columns J-O</t>
         </is>
       </c>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O186" t="inlineStr">
+      <c r="K186" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
       <c r="P186" t="inlineStr">
         <is>
-          <t>43922</t>
+          <t>43907</t>
         </is>
       </c>
       <c r="R186" t="inlineStr">
         <is>
-          <t>https://wchstv.com/news/coronavirus/wva-taking-steps-to-reduce-inmate-population-amid-covid-19-pandemic</t>
+          <t>https://www.spokesman.com/stories/2020/mar/17/dozens-released-from-spokane-county-custody-follow/</t>
         </is>
       </c>
       <c r="S186" t="inlineStr">
         <is>
-          <t>perma.cc/D93T-RVXW</t>
-        </is>
-      </c>
-      <c r="T186" t="inlineStr">
-        <is>
-          <t>70 Technical PV's from jails; 70 work release people furloughed on weekends already.  Details in article</t>
+          <t>perma.cc/5TMY-FTB3</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Wisconsin</t>
+          <t>West Virginia</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -12187,17 +12195,12 @@
           <t>State-wide</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>Governor</t>
-        </is>
-      </c>
       <c r="G187">
-        <v>1600</v>
+        <v>616</v>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Releases only</t>
+          <t>Mix</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -12210,29 +12213,29 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M187" t="inlineStr">
+      <c r="O187" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
       <c r="P187" t="inlineStr">
         <is>
-          <t>43958</t>
+          <t>43922</t>
         </is>
       </c>
       <c r="R187" t="inlineStr">
         <is>
-          <t>https://madison.com/wsj/news/local/wisconsin-doc-has-released-nearly-1-600-inmates-so-far-to-combat-covid-19-spread/article_03537daa-e1ec-5fe8-ac68-f5cf38ce8be5.html</t>
+          <t>https://wchstv.com/news/coronavirus/wva-taking-steps-to-reduce-inmate-population-amid-covid-19-pandemic</t>
         </is>
       </c>
       <c r="S187" t="inlineStr">
         <is>
-          <t>perma.cc/F43Q-4CRQ</t>
+          <t>perma.cc/D93T-RVXW</t>
         </is>
       </c>
       <c r="T187" t="inlineStr">
         <is>
-          <t>1447 who were held with violations of parole,probation or supervised release; 60 on alternative to revocation; 65 with less than a year left on a non-violent conviction.</t>
+          <t>70 Technical PV's from jails; 70 work release people furloughed on weekends already.  Details in article</t>
         </is>
       </c>
     </row>
@@ -12244,24 +12247,21 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Barron</t>
+          <t>All</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>County-wide</t>
+          <t>State-wide</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Sheriff</t>
-        </is>
-      </c>
-      <c r="E188">
-        <v>120</v>
+          <t>Governor</t>
+        </is>
       </c>
       <c r="G188">
-        <v>18</v>
+        <v>1600</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>
@@ -12273,34 +12273,34 @@
           <t>Yes - See columns J-O</t>
         </is>
       </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="O188" t="inlineStr">
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M188" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
       <c r="P188" t="inlineStr">
         <is>
-          <t>43909</t>
+          <t>43958</t>
         </is>
       </c>
       <c r="R188" t="inlineStr">
         <is>
-          <t>https://www.apg-wi.com/rice_lake_chronotype/free/jail-reacts-to-covid/article_82513b38-693b-11ea-a783-739d66ef7ef5.html</t>
+          <t>https://madison.com/wsj/news/local/wisconsin-doc-has-released-nearly-1-600-inmates-so-far-to-combat-covid-19-spread/article_03537daa-e1ec-5fe8-ac68-f5cf38ce8be5.html</t>
         </is>
       </c>
       <c r="S188" t="inlineStr">
         <is>
-          <t>perma.cc/GL3K-B9F9</t>
+          <t>perma.cc/F43Q-4CRQ</t>
         </is>
       </c>
       <c r="T188" t="inlineStr">
         <is>
-          <t>Huber releases -- Under state law, 18 people on work release were released and placed on electronic monitors</t>
+          <t>1447 who were held with violations of parole,probation or supervised release; 60 on alternative to revocation; 65 with less than a year left on a non-violent conviction.</t>
         </is>
       </c>
     </row>
@@ -12312,7 +12312,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Chippewa</t>
+          <t>Barron</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -12325,13 +12325,11 @@
           <t>Sheriff</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+      <c r="E189">
+        <v>120</v>
       </c>
       <c r="G189">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="H189" t="inlineStr">
         <is>
@@ -12343,6 +12341,11 @@
           <t>Yes - See columns J-O</t>
         </is>
       </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O189" t="inlineStr">
         <is>
           <t>x</t>
@@ -12350,22 +12353,22 @@
       </c>
       <c r="P189" t="inlineStr">
         <is>
-          <t>43908</t>
+          <t>43909</t>
         </is>
       </c>
       <c r="R189" t="inlineStr">
         <is>
-          <t>https://madison.com/ct/news/local/inmates-fear-the-invisible-enemy-in-wisconsin-s-overcrowded-prisons/article_b7920ea3-e2a0-5915-b70c-a6bbd9a843ca.htmlhttps://wqow.com/2020/03/18/huber-inmates-released-to-prevent-virus-spread/</t>
+          <t>https://www.apg-wi.com/rice_lake_chronotype/free/jail-reacts-to-covid/article_82513b38-693b-11ea-a783-739d66ef7ef5.html</t>
         </is>
       </c>
       <c r="S189" t="inlineStr">
         <is>
-          <t>perma.cc/F43Q-4CRQ</t>
+          <t>perma.cc/GL3K-B9F9</t>
         </is>
       </c>
       <c r="T189" t="inlineStr">
         <is>
-          <t>Huber releases -- 50 people on work release were released to home, population usually 130 in jail is now down to 42 (older source: https://wqow.com/2020/03/18/huber-inmates-released-to-prevent-virus-spread/)</t>
+          <t>Huber releases -- Under state law, 18 people on work release were released and placed on electronic monitors</t>
         </is>
       </c>
     </row>
@@ -12377,7 +12380,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Eau Claire</t>
+          <t>Chippewa</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -12392,15 +12395,15 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G190">
-        <v>143</v>
+        <v>50</v>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Mix</t>
+          <t>Releases only</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -12415,22 +12418,22 @@
       </c>
       <c r="P190" t="inlineStr">
         <is>
-          <t>43929</t>
+          <t>43908</t>
         </is>
       </c>
       <c r="R190" t="inlineStr">
         <is>
-          <t>https://www.leadertelegram.com/covid-19/ec-county-jail-temporarily-reduces-inmates-by-half-over-covid-19-concerns/article_9f76d114-9bbc-5981-a3b2-06cdea0a4a5e.html</t>
+          <t>https://madison.com/ct/news/local/inmates-fear-the-invisible-enemy-in-wisconsin-s-overcrowded-prisons/article_b7920ea3-e2a0-5915-b70c-a6bbd9a843ca.htmlhttps://wqow.com/2020/03/18/huber-inmates-released-to-prevent-virus-spread/</t>
         </is>
       </c>
       <c r="S190" t="inlineStr">
         <is>
-          <t>perma.cc/TA4A-LQ94</t>
+          <t>perma.cc/F43Q-4CRQ</t>
         </is>
       </c>
       <c r="T190" t="inlineStr">
         <is>
-          <t>Reduced admission, 30 Huber releases, other releases</t>
+          <t>Huber releases -- 50 people on work release were released to home, population usually 130 in jail is now down to 42 (older source: https://wqow.com/2020/03/18/huber-inmates-released-to-prevent-virus-spread/)</t>
         </is>
       </c>
     </row>
@@ -12442,10 +12445,75 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
+          <t>Eau Claire</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>County-wide</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Sheriff</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="G191">
+        <v>143</v>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Mix</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>Yes - See columns J-O</t>
+        </is>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>43929</t>
+        </is>
+      </c>
+      <c r="R191" t="inlineStr">
+        <is>
+          <t>https://www.leadertelegram.com/covid-19/ec-county-jail-temporarily-reduces-inmates-by-half-over-covid-19-concerns/article_9f76d114-9bbc-5981-a3b2-06cdea0a4a5e.html</t>
+        </is>
+      </c>
+      <c r="S191" t="inlineStr">
+        <is>
+          <t>perma.cc/TA4A-LQ94</t>
+        </is>
+      </c>
+      <c r="T191" t="inlineStr">
+        <is>
+          <t>Reduced admission, 30 Huber releases, other releases</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Wisconsin</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
           <t>Kenosha</t>
         </is>
       </c>
-      <c r="C191" t="inlineStr">
+      <c r="C192" t="inlineStr">
         <is>
           <t>County-wide</t>
         </is>
@@ -12454,242 +12522,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010051E0680B92C32A4BA570E67EC69CADAB" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8b543824e0d0efda384fe7e90684491c">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="decd7d76-ebaa-4206-97b5-2f3f55aa59b2" xmlns:ns3="5adaec23-4d3a-444a-8df2-cdc77892727c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e549fe9afa7e302c856fa33d7078cb81" ns2:_="" ns3:_="">
-    <xsd:import namespace="decd7d76-ebaa-4206-97b5-2f3f55aa59b2"/>
-    <xsd:import namespace="5adaec23-4d3a-444a-8df2-cdc77892727c"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="decd7d76-ebaa-4206-97b5-2f3f55aa59b2" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="5adaec23-4d3a-444a-8df2-cdc77892727c" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4721D1E3-679F-4FAD-983B-8C221694CFB6}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB97DFBC-B66F-4C17-9678-704634C46801}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEEB44FB-4DD0-4F2F-84DC-0542C8348650}"/>
 </file>